--- a/easylight/doc/data.xlsx
+++ b/easylight/doc/data.xlsx
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -89,13 +89,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -239,33 +250,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -289,6 +300,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -305,10 +317,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -485,11 +497,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -498,27 +513,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -775,10 +790,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1069,7 +1084,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2059,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F35" s="10">
         <v>0.956</v>
@@ -2139,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="10">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F39" s="10">
         <v>0.956</v>
@@ -2219,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="10">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F43" s="10">
         <v>0.956</v>
@@ -2299,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="10">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F47" s="10">
         <v>0.956</v>
@@ -2379,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="10">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F51" s="10">
         <v>0.956</v>
